--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5126,7 +5127,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -5141,6 +5141,1958 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1706</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5132</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7099,4 +7100,2604 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8259</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>142.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8418</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0268</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8369</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4501</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3731</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1529</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0973</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9828</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9823</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7145</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6642</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6177</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5137</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9700,4 +9701,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9709,7 +9710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9720,17 +9721,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9740,14 +9761,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.6</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.2828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9756,14 +9799,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.47</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9772,14 +9837,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>57</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.91</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>145.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2533</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9788,13 +9875,2391 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6252</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0718</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0709</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6959</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6442</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4727</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4071</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>64</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>28.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12158,7 +12159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12169,17 +12170,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12189,14 +12210,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.28</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -12205,14 +12248,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.6</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12221,14 +12286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.47</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>107.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -12237,14 +12324,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>57</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.91</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -12253,13 +12362,1877 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5543</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8869</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7710</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6648</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6398</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>64</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>28.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14115,7 +14116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14126,17 +14127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14146,14 +14167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.42</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -14162,14 +14205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.28</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -14178,14 +14243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>53.6</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -14194,14 +14281,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.47</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -14210,14 +14319,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>57</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.91</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -14226,13 +14357,2271 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9728</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6620</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>57</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>64</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>28.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>35.66</v>
+        <v>34.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>33.42</v>
+        <v>35.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>51.28</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>53.6</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>18.47</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>31.91</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>28.96</v>
       </c>
     </row>
@@ -600,6 +617,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0927</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>59.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7849</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7677</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7177</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4717</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2971,7 +5132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4927,7 +7088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7375,7 +9536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9975,7 +12136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11927,7 +14088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14142,7 +16303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603267-鸿远电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>34.23</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>35.66</v>
+        <v>34.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>33.42</v>
+        <v>35.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>51.28</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>53.6</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>18.47</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>31.91</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2518 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>57</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>64</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>28.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4794</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4662</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3932</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010078</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>200011</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城景气行业龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002191</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银汇理物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010079</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3122,2036 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8343</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7603</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6670</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4905</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2760,7 +7295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5132,7 +9667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7088,7 +11623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9536,7 +14071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12136,7 +16671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14088,7 +18623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16301,2492 +20836,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.4952</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007802</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全合泰混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.4794</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004698</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时军工主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.5261</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发聚丰混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>71.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.3455</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519704</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>65.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.4662</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>270050</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发新经济混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.9313</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.3932</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7564</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007750</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发优势增长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7054</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6967</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007803</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴全合泰混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6782</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001042</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏领先股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5754</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5400</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001103</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3035</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000690</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2294</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000063</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长盛电子信息主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2061</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000264</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时内需增长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1899</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1862</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1427</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1422</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1157</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001276</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>建信新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000039</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>农银高增长混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0996</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0996</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0925</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0877</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0827</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006813</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时汇悦回报混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>73.71</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006281</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>万家人工智能混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001825</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>540004</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇丰晋信2026周期混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>64.74</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008757</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008758</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010134</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>广发新经济混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0415</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>010078</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>002296</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>长城行业轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>003004</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>招商睿祥定期开放混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>50.61</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>200011</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>长城景气行业龙头灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>79.92</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>002191</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>农银汇理物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>730001</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>010025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>广发聚丰混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010079</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>007046</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>